--- a/biology/Zoologie/Bombus_sylvestris/Bombus_sylvestris.xlsx
+++ b/biology/Zoologie/Bombus_sylvestris/Bombus_sylvestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombus sylvestris, le psithyre sylvestre, est une espèce d'insectes hyménoptères de la famille des Apidae (de Apis : abeille). Il appartient au genre Bombus et au sous-genre Psithyrus.
 C'est un bourdon parasite (« bourdon coucou ») d'autres espèces de bourdons, surtout Bombus pratorum (le bourdon des prés).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,9 +580,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le deuxième plus fréquent bourdon parasite en Europe. De répartition eurasiatique, on le rencontre dans la majeure partie du continent: du milieu de la péninsule ibérique, de l'Italie et des Balkans au Sud, jusqu'au delà du cercle polaire au Nord, et de l'Irlande à l'Ouest à l'extrême-orient de la Russie à l'Est[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le deuxième plus fréquent bourdon parasite en Europe. De répartition eurasiatique, on le rencontre dans la majeure partie du continent: du milieu de la péninsule ibérique, de l'Italie et des Balkans au Sud, jusqu'au delà du cercle polaire au Nord, et de l'Irlande à l'Ouest à l'extrême-orient de la Russie à l'Est. 
 </t>
         </is>
       </c>
@@ -596,6 +614,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
